--- a/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_txntype/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_txntype/expected_result.xlsx
@@ -514,22 +514,22 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>-193621.46</v>
+        <v>-191335.61</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>-185950.89</v>
+        <v>-198285.63</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>-182771.17</v>
+        <v>-182703.46</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>-182697.21</v>
+        <v>-206749.08</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>-185915.12</v>
+        <v>-174255.89</v>
       </c>
       <c r="H2" s="6" t="n">
-        <v>-930955.85</v>
+        <v>-953329.67</v>
       </c>
     </row>
     <row r="3">
@@ -540,22 +540,22 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>-48026.42</v>
+        <v>-54488.72</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>-49297.77</v>
+        <v>-46939.96</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>-54345.31</v>
+        <v>-54448.97</v>
       </c>
       <c r="F3" s="6" t="n">
-        <v>-50578.54</v>
+        <v>-58853.76</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>-53809.56</v>
+        <v>-47277.03</v>
       </c>
       <c r="H3" s="6" t="n">
-        <v>-256057.6</v>
+        <v>-262008.44</v>
       </c>
     </row>
     <row r="4">
@@ -570,22 +570,22 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
-        <v>561651.05</v>
+        <v>591845.34</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>639158.25</v>
+        <v>585293.16</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>636400.05</v>
+        <v>643798.41</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>721122.62</v>
+        <v>537409.59</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>566093.61</v>
+        <v>647993.1</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>3124425.58</v>
+        <v>3006339.6</v>
       </c>
     </row>
     <row r="5">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" s="1" t="inlineStr"/>
       <c r="C6" s="7" t="n">
-        <v>320003.17</v>
+        <v>346021.01</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>403909.59</v>
+        <v>340067.57</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>399283.57</v>
+        <v>406645.98</v>
       </c>
       <c r="F6" s="7" t="n">
-        <v>487846.87</v>
+        <v>271806.75</v>
       </c>
       <c r="G6" s="7" t="n">
-        <v>326368.93</v>
+        <v>426460.18</v>
       </c>
       <c r="H6" s="7" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
     </row>
   </sheetData>
